--- a/Dago_s/Nrheology.xlsx
+++ b/Dago_s/Nrheology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Dago_s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCC64A8-8B38-4355-9231-4DB5D32E140B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D222EBD-3D9A-4912-9653-046D615BF85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="4080" yWindow="1485" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Pa.s</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>wt%</t>
+  </si>
+  <si>
+    <t>[g of solute]</t>
+  </si>
+  <si>
+    <t>[ml of solvent]</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1434,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,6 +1479,15 @@
         <v>73</v>
       </c>
       <c r="I4" s="21"/>
+      <c r="J4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1493,6 +1511,16 @@
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
+      <c r="J5" s="15">
+        <v>10</v>
+      </c>
+      <c r="K5" s="15">
+        <f>(J5*L5)/(100-J5)</f>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="L5" s="15">
+        <v>5000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>

--- a/Dago_s/Nrheology.xlsx
+++ b/Dago_s/Nrheology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Dago_s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D222EBD-3D9A-4912-9653-046D615BF85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C034583-C631-441E-AA84-C10B89F40E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1485" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>g</t>
   </si>
   <si>
-    <t>(prepare 2 ml of solution; times 1000 to get cuantities in mg)</t>
-  </si>
-  <si>
     <t>Planned</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>[ml of solvent]</t>
+  </si>
+  <si>
+    <t>(prepare 5 ml of solution; times 1000 to get cuantities in mg)</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -439,6 +439,12 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,7 +1440,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1454,9 @@
     <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="15" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" style="16" customWidth="1"/>
-    <col min="10" max="12" width="15.7109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -1457,42 +1465,42 @@
         <v>5000</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I1" s="14"/>
     </row>
     <row r="4" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="L4" s="34" t="s">
         <v>81</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="22">
         <v>0.5</v>
@@ -1511,21 +1519,21 @@
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
-      <c r="J5" s="15">
+      <c r="J5" s="35">
+        <f>(K5/L5)*100</f>
         <v>10</v>
       </c>
-      <c r="K5" s="15">
-        <f>(J5*L5)/(100-J5)</f>
-        <v>555.55555555555554</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="K5" s="35">
+        <v>500</v>
+      </c>
+      <c r="L5" s="35">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="22">
         <v>1</v>
@@ -1549,7 +1557,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="22">
         <v>2</v>
@@ -1574,7 +1582,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="22">
         <v>4</v>
@@ -1599,7 +1607,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="22">
         <v>10</v>
@@ -1673,7 +1681,7 @@
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="31">
         <v>0</v>
